--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Fall.120319_.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Fall.120319_.xlsx_with_dialog_acts.xlsx
@@ -1605,12 +1605,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2613,12 +2613,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3117,12 +3117,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3369,12 +3369,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3453,12 +3453,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3915,12 +3915,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5137,12 +5137,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5179,12 +5179,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5599,12 +5599,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5641,12 +5641,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6103,12 +6103,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6485,12 +6485,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6821,12 +6821,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7283,12 +7283,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7325,12 +7325,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7493,12 +7493,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7535,12 +7535,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8123,12 +8123,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8459,12 +8459,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8501,12 +8501,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9135,12 +9135,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9765,12 +9765,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9891,12 +9891,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9975,12 +9975,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10101,12 +10101,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10437,12 +10437,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10479,12 +10479,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10949,12 +10949,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11121,12 +11121,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11163,12 +11163,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12087,12 +12087,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13179,12 +13179,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13431,12 +13431,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13771,12 +13771,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13897,12 +13897,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14867,12 +14867,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14951,12 +14951,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15413,12 +15413,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15875,12 +15875,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16001,12 +16001,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16337,12 +16337,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16589,12 +16589,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16719,12 +16719,12 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17101,12 +17101,12 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17185,12 +17185,12 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17395,12 +17395,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17899,12 +17899,12 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17983,12 +17983,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18323,12 +18323,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18533,12 +18533,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18617,12 +18617,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18659,12 +18659,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
